--- a/data/income.xlsx
+++ b/data/income.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="PDD" r:id="rId4"/>
+    <sheet sheetId="1" name="PINS" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,16 +67,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="39.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -89,22 +89,22 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44926.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44561.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43100.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>42735.0</v>
       </c>
     </row>
     <row r="2">
@@ -114,22 +114,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>14742800000.0</v>
+        <v>2802574000.0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>9117527000.0</v>
+        <v>2578027000.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4329611000.0</v>
+        <v>1692658000.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1908223000.0</v>
+        <v>1142761000.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>278048000.0</v>
+        <v>755932000.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>76000000.0</v>
+        <v>472852000.0</v>
       </c>
     </row>
     <row r="3">
@@ -139,22 +139,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.617</v>
+        <v>0.0871</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.1059</v>
+        <v>0.5231</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.2689</v>
+        <v>0.4812</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>5.8629</v>
+        <v>0.5117</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2.6585</v>
+        <v>0.5987</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-0.7054</v>
+        <v>-0.3743</v>
       </c>
     </row>
     <row r="4">
@@ -164,22 +164,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4977261000.0</v>
+        <v>678597000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2954581000.0</v>
+        <v>529320000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>910508000.0</v>
+        <v>449358000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>422551000.0</v>
+        <v>358903000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>115237000.0</v>
+        <v>241584000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>87000000.0</v>
+        <v>178664000.0</v>
       </c>
     </row>
     <row r="5">
@@ -189,22 +189,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>9765535000.0</v>
+        <v>2123977000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>6162946000.0</v>
+        <v>2048707000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3419103000.0</v>
+        <v>1243300000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1485672000.0</v>
+        <v>783858000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>162811000.0</v>
+        <v>514348000.0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>294188000.0</v>
       </c>
     </row>
     <row r="6">
@@ -214,22 +214,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1411134000.0</v>
+        <v>948980000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1056192000.0</v>
+        <v>780264000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>555942000.0</v>
+        <v>606194000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>162324000.0</v>
+        <v>1207059000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>20593000.0</v>
+        <v>251662000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4000000.0</v>
+        <v>207973000.0</v>
       </c>
     </row>
     <row r="7">
@@ -239,22 +239,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7272149000.0</v>
+        <v>1276674000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6544352000.0</v>
+        <v>942256000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4089598000.0</v>
+        <v>779610000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2894106000.0</v>
+        <v>965665000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>235594000.0</v>
+        <v>337407000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>28000000.0</v>
+        <v>224149000.0</v>
       </c>
     </row>
     <row r="8">
@@ -264,187 +264,177 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1082251000.0</v>
+        <v>-101677000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-1437598000.0</v>
+        <v>326187300.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-1226437000.0</v>
+        <v>-142504000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-1570758000.0</v>
+        <v>-1388866000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-94970000.0</v>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-74721000.0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>-137934000.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Interest Expense (Operating)</t>
+          <t>Non-operating Income/Expense</t>
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>191000000.0</v>
+        <v>15733000.0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>110000000.0</v>
+        <v>-5216000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>21000000.0</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>15484000.0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>28027000.0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>12157000.0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>8201000.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Non-operating Income/Expense</t>
+          <t>Non-operating Interest Expenses</t>
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>401511000.0</v>
+        <v>15210000.0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>324433000.0</v>
+        <v>9420000.0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>221484000.0</v>
+        <v>635000.0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>84738000.0</v>
+        <v>2137000.0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>11257000.0</v>
+        <v>995000.0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1000000.0</v>
+        <v>112000.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Non-operating Interest Expenses</t>
+          <t>EBT</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>193171000.0</v>
+        <v>-85944000.0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>116067000.0</v>
+        <v>320971000.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>20951000.0</v>
+        <v>-127020000.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>88000000.0</v>
+        <v>-1360839000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>12000000.0</v>
+        <v>-62564000.0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1000000.0</v>
+        <v>-129733000.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>EBT</t>
+          <t>Income Tax Provision</t>
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1483763000.0</v>
+        <v>10103000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-1113165000.0</v>
+        <v>4533000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-1004953000.0</v>
+        <v>1303000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-1486020000.0</v>
+        <v>532000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-83713000.0</v>
+        <v>410000.0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-44000000.0</v>
+        <v>311000.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Income Tax Provision</t>
+          <t>Income after Tax</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>303422000.0</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-96047000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>316438000.0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>-128323000.0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-1361371000.0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-62974000.0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>-130044000.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Income after Tax</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1180341000.0</v>
+          <t>Dividends (Preferred)</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-1113165000.0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>-1004953000.0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>-1486020000.0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>-83713000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -455,466 +445,450 @@
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Share of Subsidiary Earnings</t>
+          <t>Net Income Common</t>
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>38733000.0</v>
+        <v>-96047000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>12821000.0</v>
+        <v>316438000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4119000.0</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-128323000.0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>-1361371000.0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-62974000.0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>-130044000.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Dividends (Preferred)</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>EPS (Basic)</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>-0.22</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11708000.0</v>
+        <v>-3.24</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-4211000.0</v>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.12</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Net Income Common</t>
+          <t>EPS (Diluted)</t>
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1219074000.0</v>
+        <v>-0.14</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>-1100344000.0</v>
+        <v>0.46</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-1000834000.0</v>
+        <v>-0.22</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-1497728000.0</v>
+        <v>-3.24</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>-79502000.0</v>
+        <v>-0.12</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>EPS (Basic)</t>
+          <t>Shares (Basic, Weighted)</t>
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.97</v>
+        <v>665732000.0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-0.92</v>
+        <v>640030000.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-0.88</v>
+        <v>596264000.0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-2.0</v>
+        <v>420473000.0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.02</v>
+        <v>127091000.0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.01</v>
+        <v>126562000.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>EPS (Diluted)</t>
+          <t>Shares (Diluted, Weighted)</t>
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.85</v>
+        <v>665732000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-0.92</v>
+        <v>691651000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.88</v>
+        <v>596264000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-2.0</v>
+        <v>420473000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.07</v>
+        <v>127091000.0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.04</v>
+        <v>126562000.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Shares (Basic, Weighted)</t>
+          <t>Gross Margin</t>
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1253163000.0</v>
+        <v>0.7579</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1192086000.0</v>
+        <v>0.7947</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1156819000.0</v>
+        <v>0.7345</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>742080000.0</v>
+        <v>0.6859</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>441200000.0</v>
+        <v>0.6804</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1108000000.0</v>
+        <v>0.6222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Shares (Diluted, Weighted)</t>
+          <t>EBIT Margin</t>
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1428441000.0</v>
+        <v>-0.0363</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1192086000.0</v>
+        <v>0.1265</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1156819000.0</v>
+        <v>-0.0842</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>742080000.0</v>
+        <v>-1.2154</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>441200000.0</v>
+        <v>-0.0988</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1108000000.0</v>
+        <v>-0.2917</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Gross Margin</t>
+          <t>EBT margin</t>
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.6624</v>
+        <v>-0.0307</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.6759</v>
+        <v>0.1245</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.7897</v>
+        <v>-0.075</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0.7786</v>
+        <v>-1.1908</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.5855</v>
+        <v>-0.0828</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-0.1447</v>
+        <v>-0.2744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>EBIT Margin</t>
+          <t>Net Profit Margin</t>
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.0734</v>
+        <v>-0.0343</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-0.1577</v>
+        <v>0.1227</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-0.2833</v>
+        <v>-0.0758</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-0.8232</v>
+        <v>-1.1913</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-0.3416</v>
+        <v>-0.0833</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-1.1316</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>EBT margin</t>
+          <t>Free Cash Flow Margin</t>
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.1006</v>
+        <v>0.1571</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-0.1221</v>
+        <v>0.2885</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-0.2321</v>
+        <v>0.0067</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-0.7787</v>
+        <v>-0.029</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-0.3011</v>
+        <v>-0.1092</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-0.5789</v>
+        <v>-0.3048</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Net Profit Margin</t>
+          <t>EBITDA</t>
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.0827</v>
+        <v>-55188000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-0.1207</v>
+        <v>353687300.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-0.2312</v>
+        <v>-105516000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-0.7849</v>
+        <v>-1361075000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-0.2859</v>
+        <v>-53862000.0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>-0.6447</v>
+        <v>-121799000.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Free Cash Flow Margin</t>
+          <t>EBIT</t>
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.2714</v>
+        <v>-101677000.0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.4732</v>
+        <v>326187300.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.4908</v>
+        <v>-142504000.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.59</v>
+        <v>-1388866000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.176</v>
+        <v>-74721000.0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.7424</v>
+        <v>-137934000.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Income from Continuous Operations</t>
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1371653000.0</v>
+        <v>-96047000.0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>-1337748000.0</v>
+        <v>316438000.0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>-1134818000.0</v>
+        <v>-128323000.0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-1498472000.0</v>
+        <v>-1361371000.0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>-94609000.0</v>
+        <v>-62974000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>-43000000.0</v>
+        <v>-130044000.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>EBIT</t>
+          <t>Consolidated Net Income/Loss</t>
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1082251000.0</v>
+        <v>-96047000.0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>-1437598000.0</v>
+        <v>316438000.0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-1226437000.0</v>
+        <v>-128323000.0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-1570758000.0</v>
+        <v>-1361371000.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-94970000.0</v>
+        <v>-62974000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-86000000.0</v>
+        <v>-130044000.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Income from Continuous Operations</t>
+          <t>EPS (Basic, from Continuous Ops)</t>
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1219074000.0</v>
+        <v>-0.1443</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>-1100344000.0</v>
+        <v>0.4944</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-1000834000.0</v>
+        <v>-0.2152</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-1486020000.0</v>
+        <v>-3.2377</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>-83713000.0</v>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.4955</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>-1.0275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Consolidated Net Income/Loss</t>
+          <t>EPS (Basic, Consolidated)</t>
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1219074000.0</v>
+        <v>-0.1443</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>-1100344000.0</v>
+        <v>0.4944</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>-1000834000.0</v>
+        <v>-0.2152</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-1486020000.0</v>
+        <v>-3.2377</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>-83713000.0</v>
+        <v>-0.4955</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>-44000000.0</v>
+        <v>-1.0275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>EPS (Basic, from Continuous Ops)</t>
+          <t>EPS (Diluted, from Cont. Ops)</t>
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.9728</v>
+        <v>-0.1443</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>-0.923</v>
+        <v>0.4575</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-0.8652</v>
+        <v>-0.2152</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-2.0025</v>
+        <v>-3.2377</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>-0.1897</v>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.4955</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>-1.0275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>EPS (Basic, Consolidated)</t>
+          <t>Shares (Diluted, Average)</t>
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.9728</v>
+        <v>665732000.0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>-0.923</v>
+        <v>691651000.0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>-0.8652</v>
+        <v>596264000.0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>-2.0025</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>-0.1897</v>
+        <v>420473000.0</v>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -925,134 +899,76 @@
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>EPS (Diluted, from Cont. Ops)</t>
+          <t>EPS (Diluted, Consolidated)</t>
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.8534</v>
+        <v>-0.1443</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>-0.923</v>
+        <v>0.4575</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>-0.8652</v>
+        <v>-0.2152</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>-2.0025</v>
+        <v>-3.2377</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>-0.1897</v>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.4955</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>-1.0275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Shares (Diluted, Average)</t>
+          <t>EBITDA Margin</t>
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1428441000.0</v>
+        <v>-0.0197</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1192086000.0</v>
+        <v>0.1372</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1156820000.0</v>
+        <v>-0.0623</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>742080000.0</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-1.191</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>-0.0713</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>-0.2576</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>EPS (Diluted, Consolidated)</t>
+          <t>Operating Cash Flow Margin</t>
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.8534</v>
+        <v>0.1674</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>-0.923</v>
+        <v>0.292</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-0.8652</v>
+        <v>0.017</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-2.0025</v>
+        <v>0.0006</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>-0.1897</v>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>EBITDA Margin</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>-0.1467</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>-0.2621</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>-0.7853</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>-0.3403</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>-0.5658</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>Operating Cash Flow Margin</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.3064</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.4917</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0.5921</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0.1809</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>1.7424</v>
+        <v>-0.0799</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>-0.2176</v>
       </c>
     </row>
   </sheetData>
